--- a/Rawdata/tor.lydata.xlsx
+++ b/Rawdata/tor.lydata.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torhanssonfrank/Desktop/Skolarbeten/Master i Stockholm/Masterarbete/Den and territory selection/Rawdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382B306-D338-DC41-9691-B67ED9AA1175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{655D4D94-E2E7-4740-A411-42C071AC19FC}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{655D4D94-E2E7-4740-A411-42C071AC19FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="55">
-  <si>
-    <t>lya</t>
-  </si>
-  <si>
-    <t>zz020</t>
-  </si>
   <si>
     <t>snöfri procent</t>
   </si>
@@ -80,12 +75,6 @@
     <t>j</t>
   </si>
   <si>
-    <t>zz104a</t>
-  </si>
-  <si>
-    <t>En stor hög framtinad hög 10 m SV om gps-punkten. Den har inga lyöppningar och innehåller mycket stor övervuxen sten. Antagligen inte en del av lyan.</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -98,22 +87,13 @@
     <t>n</t>
   </si>
   <si>
-    <t>zz104b</t>
-  </si>
-  <si>
     <t>Tog även snödjup runt gps-punkten. Går inte säga om det är lyans centrum. Snöfri procent stämmer antagligen bara om man bortser frå den framtinade högen (zz104a). Riktning och vinkel svåra att bestämma pga snö</t>
-  </si>
-  <si>
-    <t>zz042</t>
   </si>
   <si>
     <t>164.8</t>
   </si>
   <si>
     <t>svårt att se hur stor lyan är.</t>
-  </si>
-  <si>
-    <t>zz099</t>
   </si>
   <si>
     <t>40.6</t>
@@ -128,16 +108,10 @@
     <t>bonuslya</t>
   </si>
   <si>
-    <t>zz033</t>
-  </si>
-  <si>
     <t>91.5</t>
   </si>
   <si>
     <t>250 SV</t>
-  </si>
-  <si>
-    <t>zz062a</t>
   </si>
   <si>
     <t xml:space="preserve">Lyan verkar var i två delar. Där gps-punkten ligger är det platt och översnöat men en eller flera rävar har grävt hål i snön, kanske ner till de riktiga lyöppningarna. 30 m SV om gps-punkten finns en grässlänt som är stenig men med några hål i (zz062a). </t>
@@ -146,13 +120,7 @@
     <t>k</t>
   </si>
   <si>
-    <t>zz062b</t>
-  </si>
-  <si>
     <t>Andra delen av lyan vid gps-punkten. Mäter snödjup där det är grävt fyra hål i snön av rävar. Rävarna verkar ha lämnat lyan. Ett färskt spår vid foderautomaten. Rävarna verkar också ha försökt gräva i marken ovanför foderautomaten nyligen.</t>
-  </si>
-  <si>
-    <t>zz014</t>
   </si>
   <si>
     <t>130 SO</t>
@@ -161,34 +129,67 @@
     <t>Om man räknar med nysnö är andel snöfri yta 70 %. Den snöfria ytan är då 236,6 kvadratmeter. Det fanns 11 hål på lyan men alla utom ett var täckt med snö. Jag borde ha undersökt om det bara var nysnö men det gjorde jag inte.</t>
   </si>
   <si>
-    <t>zz096</t>
-  </si>
-  <si>
     <t>266 V</t>
   </si>
   <si>
     <t>Lyan ligger i en sluttning med riktning 172 grader S. Dock skymmer en liten kulle lyan. Kullen har inga synliga öppningar och väldigt lite högt gräs. Lyans riktning blir snarare 266 grader. Vinkel svårt pga snö. Kullen framför lyan har en vinkel på 28 grader. Det är ett mycket färskt rävspår på lyan och ett grävt hål i snön bakom en sten 10 m norr om "kullen". Endast 1 synlig öppning som är igenisad. Andel snöfri yta är svårt att säga. Kullens snöfria area är 18,7 kvadratmeter men oklart om den är en del av lyan.</t>
   </si>
   <si>
-    <t>zz075</t>
-  </si>
-  <si>
     <t>Ligger på låg höjd nära trädgränsen. Grov uppskattning av snöfri area. En del buskar på lyan. I princip ingen vinkel eller riktning. Ligger i botten på en dal och är platt. Flera kollapsade öppningarna men de räknade jag inte.</t>
   </si>
   <si>
-    <t>zz076</t>
-  </si>
-  <si>
     <t>330 NV</t>
-  </si>
-  <si>
-    <t>zz061</t>
   </si>
   <si>
     <t>286 V</t>
   </si>
   <si>
     <t>Svårt att se hur stor lyan är. Den är täckt av mycket drevsnö på båda sidor.Endast en tunn rygg syns. 25% av snöfria arean var täckt av nysnö.</t>
+  </si>
+  <si>
+    <t>fszz020</t>
+  </si>
+  <si>
+    <t>fszz104a</t>
+  </si>
+  <si>
+    <t>fszz104b</t>
+  </si>
+  <si>
+    <t>fszz042</t>
+  </si>
+  <si>
+    <t>fszz099</t>
+  </si>
+  <si>
+    <t>fszz033</t>
+  </si>
+  <si>
+    <t>fszz062a</t>
+  </si>
+  <si>
+    <t>fszz062b</t>
+  </si>
+  <si>
+    <t>fszz014</t>
+  </si>
+  <si>
+    <t>fszz096</t>
+  </si>
+  <si>
+    <t>fszz075</t>
+  </si>
+  <si>
+    <t>fszz076</t>
+  </si>
+  <si>
+    <t>fszz061</t>
+  </si>
+  <si>
+    <t>En stor hög framtinad hög 10 m SV om gps-punkten. Den har inga lyöppningar och innehåller mycket stor övervuxen sten. Det visade sig vara lyans centrum under sommarinventeringen</t>
+  </si>
+  <si>
+    <t>Namn</t>
   </si>
 </sst>
 </file>
@@ -543,57 +544,57 @@
   <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M122" sqref="M122:M131"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
       <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -608,13 +609,13 @@
         <v>-0.4</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>54</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -623,12 +624,12 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -643,13 +644,13 @@
         <v>-0.4</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -658,12 +659,12 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -678,13 +679,13 @@
         <v>-0.3</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -693,12 +694,12 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -713,13 +714,13 @@
         <v>-0.4</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -728,12 +729,12 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -748,13 +749,13 @@
         <v>-0.5</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -763,12 +764,12 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -783,13 +784,13 @@
         <v>-0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>10</v>
@@ -798,12 +799,12 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -818,13 +819,13 @@
         <v>-0.4</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -833,12 +834,12 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -853,13 +854,13 @@
         <v>-0.4</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -868,12 +869,12 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -888,13 +889,13 @@
         <v>-0.3</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -903,12 +904,12 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -923,13 +924,13 @@
         <v>-0.4</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -938,12 +939,12 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>23.8</v>
@@ -955,13 +956,13 @@
         <v>-0.4</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J12">
         <v>6</v>
@@ -970,15 +971,15 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>23.8</v>
@@ -990,13 +991,13 @@
         <v>-0.4</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -1005,15 +1006,15 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>23.8</v>
@@ -1025,13 +1026,13 @@
         <v>-0.5</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -1040,15 +1041,15 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>23.8</v>
@@ -1060,13 +1061,13 @@
         <v>2.7</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -1075,15 +1076,15 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>23.8</v>
@@ -1095,13 +1096,13 @@
         <v>3.1</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H16">
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -1110,15 +1111,15 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>23.8</v>
@@ -1130,13 +1131,13 @@
         <v>2.5</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -1145,15 +1146,15 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>23.8</v>
@@ -1165,13 +1166,13 @@
         <v>0.2</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -1180,15 +1181,15 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>23.8</v>
@@ -1200,13 +1201,13 @@
         <v>3.3</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -1215,15 +1216,15 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>23.8</v>
@@ -1235,13 +1236,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J20">
         <v>6</v>
@@ -1250,15 +1251,15 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>23.8</v>
@@ -1270,13 +1271,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J21">
         <v>6</v>
@@ -1285,30 +1286,30 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J22">
         <v>6</v>
@@ -1317,30 +1318,30 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J23">
         <v>6</v>
@@ -1349,30 +1350,30 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -1381,30 +1382,30 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25">
         <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J25">
         <v>6</v>
@@ -1413,30 +1414,30 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>75</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -1445,30 +1446,30 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>73</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J27">
         <v>6</v>
@@ -1477,30 +1478,30 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>63</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -1509,30 +1510,30 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>74</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -1541,30 +1542,30 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -1573,30 +1574,30 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M30" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J31">
         <v>6</v>
@@ -1605,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M31" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>-0.4</v>
@@ -1628,13 +1629,13 @@
         <v>-0.4</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <v>18</v>
@@ -1643,21 +1644,21 @@
         <v>14</v>
       </c>
       <c r="L32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M32" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>-0.3</v>
@@ -1666,13 +1667,13 @@
         <v>-0.3</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J33">
         <v>18</v>
@@ -1681,21 +1682,21 @@
         <v>14</v>
       </c>
       <c r="L33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>-0.4</v>
@@ -1704,13 +1705,13 @@
         <v>-0.4</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34">
         <v>31</v>
       </c>
       <c r="I34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J34">
         <v>18</v>
@@ -1719,21 +1720,21 @@
         <v>14</v>
       </c>
       <c r="L34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>-0.4</v>
@@ -1742,13 +1743,13 @@
         <v>-0.4</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <v>18</v>
@@ -1757,21 +1758,21 @@
         <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>-0.4</v>
@@ -1780,13 +1781,13 @@
         <v>-0.4</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J36">
         <v>18</v>
@@ -1795,21 +1796,21 @@
         <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>-0.3</v>
@@ -1818,13 +1819,13 @@
         <v>-0.4</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J37">
         <v>18</v>
@@ -1833,21 +1834,21 @@
         <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M37" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>-0.4</v>
@@ -1856,13 +1857,13 @@
         <v>-0.4</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <v>18</v>
@@ -1871,21 +1872,21 @@
         <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M38" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>-0.4</v>
@@ -1894,13 +1895,13 @@
         <v>-0.4</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J39">
         <v>18</v>
@@ -1909,21 +1910,21 @@
         <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M39" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E40">
         <v>-0.4</v>
@@ -1932,13 +1933,13 @@
         <v>-0.4</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J40">
         <v>18</v>
@@ -1947,21 +1948,21 @@
         <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M40" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>-0.3</v>
@@ -1970,13 +1971,13 @@
         <v>-0.4</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H41">
         <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J41">
         <v>18</v>
@@ -1985,24 +1986,24 @@
         <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M41" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2011,13 +2012,13 @@
         <v>0.9</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J42">
         <v>14</v>
@@ -2026,24 +2027,24 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M42" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>0.9</v>
@@ -2052,13 +2053,13 @@
         <v>0.3</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J43">
         <v>14</v>
@@ -2067,24 +2068,24 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M43" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>-0.4</v>
@@ -2093,13 +2094,13 @@
         <v>-0.5</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H44">
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J44">
         <v>14</v>
@@ -2108,24 +2109,24 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M44" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>-0.3</v>
@@ -2134,13 +2135,13 @@
         <v>-0.4</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H45">
         <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J45">
         <v>14</v>
@@ -2149,24 +2150,24 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>-0.3</v>
@@ -2175,13 +2176,13 @@
         <v>-0.4</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H46">
         <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J46">
         <v>14</v>
@@ -2190,24 +2191,24 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M46" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>-0.4</v>
@@ -2216,13 +2217,13 @@
         <v>-0.4</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J47">
         <v>14</v>
@@ -2231,24 +2232,24 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M47" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2257,13 +2258,13 @@
         <v>3.8</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J48">
         <v>14</v>
@@ -2272,24 +2273,24 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M48" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>-0.3</v>
@@ -2298,13 +2299,13 @@
         <v>-0.4</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J49">
         <v>14</v>
@@ -2313,24 +2314,24 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M49" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>-0.4</v>
@@ -2339,13 +2340,13 @@
         <v>-0.3</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J50">
         <v>14</v>
@@ -2354,24 +2355,24 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M50" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>-0.3</v>
@@ -2380,13 +2381,13 @@
         <v>-0.3</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J51">
         <v>14</v>
@@ -2395,21 +2396,21 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M51" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2421,13 +2422,13 @@
         <v>-0.6</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H52">
         <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J52">
         <v>20</v>
@@ -2436,18 +2437,18 @@
         <v>3</v>
       </c>
       <c r="L52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2459,13 +2460,13 @@
         <v>-0.3</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H53">
         <v>12</v>
       </c>
       <c r="I53" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J53">
         <v>20</v>
@@ -2474,18 +2475,18 @@
         <v>3</v>
       </c>
       <c r="L53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B54">
         <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2497,13 +2498,13 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J54">
         <v>20</v>
@@ -2512,18 +2513,18 @@
         <v>3</v>
       </c>
       <c r="L54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B55">
         <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2535,13 +2536,13 @@
         <v>-0.2</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H55">
         <v>8</v>
       </c>
       <c r="I55" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J55">
         <v>20</v>
@@ -2550,18 +2551,18 @@
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B56">
         <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2573,13 +2574,13 @@
         <v>-0.1</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J56">
         <v>20</v>
@@ -2588,18 +2589,18 @@
         <v>3</v>
       </c>
       <c r="L56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B57">
         <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2611,13 +2612,13 @@
         <v>0.1</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J57">
         <v>20</v>
@@ -2626,18 +2627,18 @@
         <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2649,13 +2650,13 @@
         <v>-0.5</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H58">
         <v>22</v>
       </c>
       <c r="I58" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J58">
         <v>20</v>
@@ -2664,18 +2665,18 @@
         <v>3</v>
       </c>
       <c r="L58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B59">
         <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2687,13 +2688,13 @@
         <v>-0.5</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H59">
         <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J59">
         <v>20</v>
@@ -2702,18 +2703,18 @@
         <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B60">
         <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2725,13 +2726,13 @@
         <v>-0.3</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J60">
         <v>20</v>
@@ -2740,18 +2741,18 @@
         <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B61">
         <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2763,13 +2764,13 @@
         <v>-0.4</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J61">
         <v>20</v>
@@ -2778,18 +2779,18 @@
         <v>3</v>
       </c>
       <c r="L61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B62">
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -2801,13 +2802,13 @@
         <v>3.3</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J62">
         <v>36</v>
@@ -2816,21 +2817,21 @@
         <v>3</v>
       </c>
       <c r="L62" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M62" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B63">
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -2842,13 +2843,13 @@
         <v>0.8</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J63">
         <v>36</v>
@@ -2857,21 +2858,21 @@
         <v>3</v>
       </c>
       <c r="L63" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B64">
         <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -2883,13 +2884,13 @@
         <v>-0.4</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H64">
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J64">
         <v>36</v>
@@ -2898,21 +2899,21 @@
         <v>3</v>
       </c>
       <c r="L64" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M64" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B65">
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -2924,13 +2925,13 @@
         <v>2.7</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J65">
         <v>36</v>
@@ -2939,21 +2940,21 @@
         <v>3</v>
       </c>
       <c r="L65" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M65" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B66">
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -2965,13 +2966,13 @@
         <v>-0.4</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H66">
         <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J66">
         <v>36</v>
@@ -2980,21 +2981,21 @@
         <v>3</v>
       </c>
       <c r="L66" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M66" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B67">
         <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3006,13 +3007,13 @@
         <v>-0.4</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J67">
         <v>36</v>
@@ -3021,21 +3022,21 @@
         <v>3</v>
       </c>
       <c r="L67" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M67" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B68">
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -3047,13 +3048,13 @@
         <v>-0.4</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H68">
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J68">
         <v>36</v>
@@ -3062,21 +3063,21 @@
         <v>3</v>
       </c>
       <c r="L68" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M68" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B69">
         <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -3088,13 +3089,13 @@
         <v>0.6</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J69">
         <v>36</v>
@@ -3103,21 +3104,21 @@
         <v>3</v>
       </c>
       <c r="L69" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M69" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B70">
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -3129,13 +3130,13 @@
         <v>3.4</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J70">
         <v>36</v>
@@ -3144,21 +3145,21 @@
         <v>3</v>
       </c>
       <c r="L70" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M70" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B71">
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -3170,13 +3171,13 @@
         <v>1.3</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J71">
         <v>36</v>
@@ -3185,15 +3186,15 @@
         <v>3</v>
       </c>
       <c r="L71" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M71" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3208,24 +3209,24 @@
         <v>150</v>
       </c>
       <c r="I72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>30</v>
+      </c>
+      <c r="M72" t="s">
         <v>31</v>
-      </c>
-      <c r="J72">
-        <v>10</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
-        <v>39</v>
-      </c>
-      <c r="M72" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3240,24 +3241,24 @@
         <v>161</v>
       </c>
       <c r="I73" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>30</v>
+      </c>
+      <c r="M73" t="s">
         <v>31</v>
-      </c>
-      <c r="J73">
-        <v>10</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73" t="s">
-        <v>39</v>
-      </c>
-      <c r="M73" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3272,24 +3273,24 @@
         <v>178</v>
       </c>
       <c r="I74" t="s">
+        <v>24</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" t="s">
         <v>31</v>
-      </c>
-      <c r="J74">
-        <v>10</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74" t="s">
-        <v>39</v>
-      </c>
-      <c r="M74" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3304,24 +3305,24 @@
         <v>110</v>
       </c>
       <c r="I75" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>30</v>
+      </c>
+      <c r="M75" t="s">
         <v>31</v>
-      </c>
-      <c r="J75">
-        <v>10</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75" t="s">
-        <v>39</v>
-      </c>
-      <c r="M75" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3336,24 +3337,24 @@
         <v>83</v>
       </c>
       <c r="I76" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" t="s">
         <v>31</v>
-      </c>
-      <c r="J76">
-        <v>10</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
-        <v>39</v>
-      </c>
-      <c r="M76" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3368,24 +3369,24 @@
         <v>72</v>
       </c>
       <c r="I77" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" t="s">
         <v>31</v>
-      </c>
-      <c r="J77">
-        <v>10</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
-        <v>39</v>
-      </c>
-      <c r="M77" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3400,24 +3401,24 @@
         <v>77</v>
       </c>
       <c r="I78" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>30</v>
+      </c>
+      <c r="M78" t="s">
         <v>31</v>
-      </c>
-      <c r="J78">
-        <v>10</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78" t="s">
-        <v>39</v>
-      </c>
-      <c r="M78" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3432,24 +3433,24 @@
         <v>65</v>
       </c>
       <c r="I79" t="s">
+        <v>24</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" t="s">
         <v>31</v>
-      </c>
-      <c r="J79">
-        <v>10</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79" t="s">
-        <v>39</v>
-      </c>
-      <c r="M79" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3464,24 +3465,24 @@
         <v>105</v>
       </c>
       <c r="I80" t="s">
+        <v>24</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>30</v>
+      </c>
+      <c r="M80" t="s">
         <v>31</v>
-      </c>
-      <c r="J80">
-        <v>10</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80" t="s">
-        <v>39</v>
-      </c>
-      <c r="M80" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3496,24 +3497,24 @@
         <v>165</v>
       </c>
       <c r="I81" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>30</v>
+      </c>
+      <c r="M81" t="s">
         <v>31</v>
-      </c>
-      <c r="J81">
-        <v>10</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81" t="s">
-        <v>39</v>
-      </c>
-      <c r="M81" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B82">
         <v>90</v>
@@ -3531,13 +3532,13 @@
         <v>0.5</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J82">
         <v>9</v>
@@ -3546,15 +3547,15 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M82" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B83">
         <v>90</v>
@@ -3572,13 +3573,13 @@
         <v>0.1</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H83">
         <v>5</v>
       </c>
       <c r="I83" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J83">
         <v>9</v>
@@ -3587,15 +3588,15 @@
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M83" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B84">
         <v>90</v>
@@ -3613,13 +3614,13 @@
         <v>-0.4</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H84">
         <v>12</v>
       </c>
       <c r="I84" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J84">
         <v>9</v>
@@ -3628,15 +3629,15 @@
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M84" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B85">
         <v>90</v>
@@ -3654,13 +3655,13 @@
         <v>-0.3</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H85">
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J85">
         <v>9</v>
@@ -3669,15 +3670,15 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M85" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B86">
         <v>90</v>
@@ -3695,13 +3696,13 @@
         <v>-0.4</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J86">
         <v>9</v>
@@ -3710,15 +3711,15 @@
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M86" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B87">
         <v>90</v>
@@ -3736,13 +3737,13 @@
         <v>4.5</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J87">
         <v>9</v>
@@ -3751,15 +3752,15 @@
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M87" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B88">
         <v>90</v>
@@ -3777,13 +3778,13 @@
         <v>-0.3</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J88">
         <v>9</v>
@@ -3792,15 +3793,15 @@
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M88" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B89">
         <v>90</v>
@@ -3818,13 +3819,13 @@
         <v>-0.4</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J89">
         <v>9</v>
@@ -3833,15 +3834,15 @@
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M89" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -3859,13 +3860,13 @@
         <v>-0.3</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J90">
         <v>9</v>
@@ -3874,15 +3875,15 @@
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M90" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -3900,13 +3901,13 @@
         <v>-0.3</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H91">
         <v>10</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J91">
         <v>9</v>
@@ -3915,15 +3916,15 @@
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M91" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B92">
         <v>15</v>
@@ -3941,13 +3942,13 @@
         <v>-0.4</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H92">
         <v>59</v>
       </c>
       <c r="I92" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J92">
         <v>16</v>
@@ -3956,15 +3957,15 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M92" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B93">
         <v>15</v>
@@ -3982,13 +3983,13 @@
         <v>-0.4</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H93">
         <v>16</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J93">
         <v>16</v>
@@ -3997,15 +3998,15 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M93" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B94">
         <v>15</v>
@@ -4023,13 +4024,13 @@
         <v>-0.3</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H94">
         <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J94">
         <v>16</v>
@@ -4038,15 +4039,15 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M94" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B95">
         <v>15</v>
@@ -4064,13 +4065,13 @@
         <v>-0.5</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J95">
         <v>16</v>
@@ -4079,15 +4080,15 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M95" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B96">
         <v>15</v>
@@ -4105,13 +4106,13 @@
         <v>-0.5</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H96">
         <v>28</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J96">
         <v>16</v>
@@ -4120,15 +4121,15 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M96" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B97">
         <v>15</v>
@@ -4146,13 +4147,13 @@
         <v>-0.3</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J97">
         <v>16</v>
@@ -4161,15 +4162,15 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M97" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B98">
         <v>15</v>
@@ -4187,13 +4188,13 @@
         <v>-0.4</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J98">
         <v>16</v>
@@ -4202,15 +4203,15 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M98" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B99">
         <v>15</v>
@@ -4228,13 +4229,13 @@
         <v>-0.4</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J99">
         <v>16</v>
@@ -4243,15 +4244,15 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M99" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B100">
         <v>15</v>
@@ -4269,13 +4270,13 @@
         <v>-0.3</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J100">
         <v>16</v>
@@ -4284,15 +4285,15 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M100" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B101">
         <v>15</v>
@@ -4310,13 +4311,13 @@
         <v>-0.4</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H101">
         <v>29</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J101">
         <v>16</v>
@@ -4325,15 +4326,15 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M101" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B102">
         <v>90</v>
@@ -4351,13 +4352,13 @@
         <v>13.3</v>
       </c>
       <c r="G102" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J102">
         <v>2</v>
@@ -4366,15 +4367,15 @@
         <v>4</v>
       </c>
       <c r="L102" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M102" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B103">
         <v>90</v>
@@ -4392,13 +4393,13 @@
         <v>15.3</v>
       </c>
       <c r="G103" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J103">
         <v>2</v>
@@ -4407,15 +4408,15 @@
         <v>4</v>
       </c>
       <c r="L103" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M103" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B104">
         <v>90</v>
@@ -4433,13 +4434,13 @@
         <v>5.7</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J104">
         <v>2</v>
@@ -4448,15 +4449,15 @@
         <v>4</v>
       </c>
       <c r="L104" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M104" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B105">
         <v>90</v>
@@ -4474,13 +4475,13 @@
         <v>9.6</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J105">
         <v>2</v>
@@ -4489,15 +4490,15 @@
         <v>4</v>
       </c>
       <c r="L105" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M105" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B106">
         <v>90</v>
@@ -4515,13 +4516,13 @@
         <v>7.6</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J106">
         <v>2</v>
@@ -4530,15 +4531,15 @@
         <v>4</v>
       </c>
       <c r="L106" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M106" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B107">
         <v>90</v>
@@ -4556,13 +4557,13 @@
         <v>7.8</v>
       </c>
       <c r="G107" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -4571,15 +4572,15 @@
         <v>4</v>
       </c>
       <c r="L107" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M107" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B108">
         <v>90</v>
@@ -4597,13 +4598,13 @@
         <v>18.399999999999999</v>
       </c>
       <c r="G108" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J108">
         <v>2</v>
@@ -4612,15 +4613,15 @@
         <v>4</v>
       </c>
       <c r="L108" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M108" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B109">
         <v>90</v>
@@ -4638,13 +4639,13 @@
         <v>6.4</v>
       </c>
       <c r="G109" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J109">
         <v>2</v>
@@ -4653,15 +4654,15 @@
         <v>4</v>
       </c>
       <c r="L109" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M109" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B110">
         <v>90</v>
@@ -4679,13 +4680,13 @@
         <v>7.5</v>
       </c>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J110">
         <v>2</v>
@@ -4694,15 +4695,15 @@
         <v>4</v>
       </c>
       <c r="L110" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M110" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B111">
         <v>90</v>
@@ -4720,13 +4721,13 @@
         <v>6.7</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J111">
         <v>2</v>
@@ -4735,15 +4736,15 @@
         <v>4</v>
       </c>
       <c r="L111" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M111" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B112">
         <v>95</v>
@@ -4761,13 +4762,13 @@
         <v>-0.4</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -4776,12 +4777,12 @@
         <v>7</v>
       </c>
       <c r="L112" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B113">
         <v>95</v>
@@ -4799,13 +4800,13 @@
         <v>-0.4</v>
       </c>
       <c r="G113" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J113">
         <v>4</v>
@@ -4814,12 +4815,12 @@
         <v>7</v>
       </c>
       <c r="L113" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B114">
         <v>95</v>
@@ -4837,13 +4838,13 @@
         <v>-0.4</v>
       </c>
       <c r="G114" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J114">
         <v>4</v>
@@ -4852,12 +4853,12 @@
         <v>7</v>
       </c>
       <c r="L114" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B115">
         <v>95</v>
@@ -4875,13 +4876,13 @@
         <v>-0.4</v>
       </c>
       <c r="G115" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J115">
         <v>4</v>
@@ -4890,12 +4891,12 @@
         <v>7</v>
       </c>
       <c r="L115" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B116">
         <v>95</v>
@@ -4913,13 +4914,13 @@
         <v>-0.4</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -4928,12 +4929,12 @@
         <v>7</v>
       </c>
       <c r="L116" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B117">
         <v>95</v>
@@ -4951,13 +4952,13 @@
         <v>-0.5</v>
       </c>
       <c r="G117" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J117">
         <v>4</v>
@@ -4966,12 +4967,12 @@
         <v>7</v>
       </c>
       <c r="L117" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B118">
         <v>95</v>
@@ -4989,13 +4990,13 @@
         <v>-0.5</v>
       </c>
       <c r="G118" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -5004,12 +5005,12 @@
         <v>7</v>
       </c>
       <c r="L118" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B119">
         <v>95</v>
@@ -5027,13 +5028,13 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J119">
         <v>4</v>
@@ -5042,12 +5043,12 @@
         <v>7</v>
       </c>
       <c r="L119" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B120">
         <v>95</v>
@@ -5065,13 +5066,13 @@
         <v>-0.4</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J120">
         <v>4</v>
@@ -5080,12 +5081,12 @@
         <v>7</v>
       </c>
       <c r="L120" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B121">
         <v>95</v>
@@ -5103,13 +5104,13 @@
         <v>-0.3</v>
       </c>
       <c r="G121" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J121">
         <v>4</v>
@@ -5118,7 +5119,7 @@
         <v>7</v>
       </c>
       <c r="L121" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -5141,13 +5142,13 @@
         <v>-0.4</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H122">
         <v>14</v>
       </c>
       <c r="I122" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J122">
         <v>6</v>
@@ -5156,10 +5157,10 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M122" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -5182,13 +5183,13 @@
         <v>-0.5</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H123">
         <v>5</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J123">
         <v>6</v>
@@ -5197,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M123" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -5223,13 +5224,13 @@
         <v>-0.3</v>
       </c>
       <c r="G124" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J124">
         <v>6</v>
@@ -5238,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M124" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -5264,13 +5265,13 @@
         <v>-0.3</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H125">
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J125">
         <v>6</v>
@@ -5279,10 +5280,10 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M125" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -5305,13 +5306,13 @@
         <v>-0.4</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H126">
         <v>20</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J126">
         <v>6</v>
@@ -5320,10 +5321,10 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M126" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
@@ -5346,13 +5347,13 @@
         <v>-0.4</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H127">
         <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J127">
         <v>6</v>
@@ -5361,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M127" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -5387,13 +5388,13 @@
         <v>-0.4</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H128">
         <v>24</v>
       </c>
       <c r="I128" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J128">
         <v>6</v>
@@ -5402,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M128" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -5428,13 +5429,13 @@
         <v>-0.4</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H129">
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J129">
         <v>6</v>
@@ -5443,10 +5444,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M129" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -5469,13 +5470,13 @@
         <v>-0.4</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H130">
         <v>6</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J130">
         <v>6</v>
@@ -5484,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M130" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -5510,13 +5511,13 @@
         <v>-0.5</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H131">
         <v>9</v>
       </c>
       <c r="I131" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J131">
         <v>6</v>
@@ -5525,10 +5526,10 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M131" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
